--- a/baseficticiarubbycx.xlsx
+++ b/baseficticiarubbycx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.matheus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.matheus\Documents\Testes\Python\Rubby.CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E66C1B2-A272-4AD0-9146-A4AEF7D5307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C8824A-1E8E-4749-A97B-3E53C11F1D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92415FBF-0199-471E-A765-C446D87BDF8F}"/>
+    <workbookView xWindow="2445" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{92415FBF-0199-471E-A765-C446D87BDF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -47,21 +47,6 @@
     <t>UC</t>
   </si>
   <si>
-    <t>Consumo (kWh)</t>
-  </si>
-  <si>
-    <t>Geração (kWh)</t>
-  </si>
-  <si>
-    <t>Crédito aplicado (kWh)</t>
-  </si>
-  <si>
-    <t>Fatura R$</t>
-  </si>
-  <si>
-    <t>Saldo de crédito</t>
-  </si>
-  <si>
     <t>João Souza</t>
   </si>
   <si>
@@ -69,6 +54,21 @@
   </si>
   <si>
     <t>CPF</t>
+  </si>
+  <si>
+    <t>Consumo</t>
+  </si>
+  <si>
+    <t>Geração</t>
+  </si>
+  <si>
+    <t>Fatura</t>
+  </si>
+  <si>
+    <t>Credito</t>
+  </si>
+  <si>
+    <t>Saldo</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>29043612864</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>45809</v>
@@ -536,7 +536,7 @@
         <v>21.55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
